--- a/RUDN/Importance/Varible_f_reg_in_South-Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_South-Eastern Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t>F-value</t>
   </si>
@@ -22,9 +22,21 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
     <t>Mortality rate, neonatal (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
     <t>Rural population (% of total population)</t>
   </si>
   <si>
@@ -34,37 +46,79 @@
     <t>Mortality rate, infant (per 1,000 live births)</t>
   </si>
   <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
     <t>Mortality rate, under-5 (per 1,000 live births)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Hospital beds (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages10-14, male (% of male population)</t>
@@ -73,55 +127,73 @@
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
-    <t>Population ages 40-44, male (% of male population)</t>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
   </si>
   <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
     <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 45-49, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>Immunization, BCG (% of one-year-old children)</t>
   </si>
   <si>
     <t>Immunization, DPT (% of children ages 12-23 months)</t>
@@ -130,46 +202,40 @@
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
     <t>Immunization, measles (% of children ages 12-23 months)</t>
   </si>
   <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
-    <t>Improved water source, rural (% of rural population with access)</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+    <t>Prevalence of undernourishment (% of population)</t>
   </si>
   <si>
     <t>Population ages 55-59, female (% of female population)</t>
@@ -181,121 +247,214 @@
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
     <t>Rural population growth (annual %)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Newborns protected against tetanus (%)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Newborns protected against tetanus (%)</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services, urban  (% of urban population)</t>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
+    <t>Lifetime risk of maternal death (%)</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% net)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
+  </si>
+  <si>
+    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least completed post-secondary, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed post-secondary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, female (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, at least Bachelor's or equivalent, population 25+, male (%) (cumulative)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, female (%)</t>
-  </si>
-  <si>
-    <t>Educational attainment, completed short-cycle tertiary, population 25+ years, male (%)</t>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Wage and salaried workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in services, female (% of female employment)</t>
   </si>
   <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Prevalence of undernourishment (% of population)</t>
+    <t>Employment in industry, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employment in industry, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Own-account workers, male (% of males employed)</t>
+  </si>
+  <si>
+    <t>Own-account workers, female (% of females employed)</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Children (ages 0-14) newly infected with HIV</t>
+  </si>
+  <si>
+    <t>Vulnerable employment, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 70-74, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, male (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, tertiary, female (%)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
     <t>Births attended by skilled health staff (% of total)</t>
   </si>
   <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Children (ages 0-14) newly infected with HIV</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Women's share of population ages 15+ living with HIV (%)</t>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
   </si>
   <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
@@ -310,112 +469,133 @@
     <t>Prevalence of HIV, total (% of population ages 15-49)</t>
   </si>
   <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, male (%)</t>
   </si>
   <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Reported cases of malaria</t>
+  </si>
+  <si>
+    <t>Malaria cases reported</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Malaria cases reported</t>
-  </si>
-  <si>
-    <t>Reported cases of malaria</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Hospital beds (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Number of under-five deaths</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
   </si>
   <si>
     <t>Number of infant deaths</t>
   </si>
   <si>
+    <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (national estimate)</t>
+  </si>
+  <si>
     <t>Number of neonatal deaths</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Employment in services, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment in services, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employment in industry, female (% of female employment)</t>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
     <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance received (current US$)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Wage and salaried workers, male (% of male employment)</t>
+    <t>Population ages 30-34, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Contributing family workers, total (% of total employment)</t>
   </si>
   <si>
     <t>Number of people who are undernourished</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% net)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, male (% of male employment)</t>
+    <t>Vulnerable employment, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, female (% of employment)</t>
+  </si>
+  <si>
+    <t>Time-related underemployment, male (% of employment)</t>
+  </si>
+  <si>
+    <t>Poverty gap at national poverty lines (%)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed upper secondary, population 25+, female (%) (cumulative)</t>
@@ -424,46 +604,43 @@
     <t>Educational attainment, at least completed upper secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Contributing family workers, female (% of female employment)</t>
-  </si>
-  <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Educational attainment, at least completed lower secondary, population 25+, male (%) (cumulative)</t>
   </si>
   <si>
-    <t>Own-account workers, male (% of males employed)</t>
-  </si>
-  <si>
-    <t>Own-account workers, female (% of females employed)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
+    <t>Community health workers (per 1,000 people)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed short-cycle tertiary, population 25+, female (%) (cumulative)</t>
   </si>
   <si>
-    <t>Vulnerable employment, male (% of male employment)</t>
+    <t>Children out of school, primary, female</t>
   </si>
   <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
     <t>Educational attainment, completed Bachelor's or equivalent, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, female (% of female employment)</t>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Educational attainment, at least completed primary, population 25+ years, female (%) (cumulative)</t>
@@ -478,6 +655,9 @@
     <t>Educational attainment, some primary, population 25+ years, female (%)</t>
   </si>
   <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Educational attainment, some primary, population 25+ years, total (%)</t>
   </si>
   <si>
@@ -487,19 +667,16 @@
     <t>Educational attainment, completed lower secondary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Number of maternal deaths</t>
+    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
   </si>
   <si>
     <t>Educational attainment, completed upper secondary, population 25+ years, male (%)</t>
   </si>
   <si>
-    <t>Educational attainment, completed lower secondary, population 25+ years, male (%)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, female (% of employment)</t>
-  </si>
-  <si>
-    <t>Time-related underemployment, male (% of employment)</t>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Educational attainment, completed primary, population 25+ years, male (%)</t>
@@ -508,46 +685,31 @@
     <t>Educational attainment, completed primary, population 25+ years, female (%)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
+    <t>People using safely managed drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>Rural population</t>
   </si>
   <si>
-    <t>Gross graduation ratio, tertiary, male (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, tertiary, female (%)</t>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
   </si>
   <si>
     <t>Children (0-14) living with HIV</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
   </si>
   <si>
     <t>Age population, age 0, female, interpolated</t>
@@ -562,45 +724,39 @@
     <t>Age population, age 02, female, interpolated</t>
   </si>
   <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
     <t>Age population, age 03, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 0, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 05, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 0, male, interpolated</t>
+    <t>Age population, age 01, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 02, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 00-04</t>
   </si>
   <si>
     <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
-    <t>Community health workers (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Age population, age 01, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 00-04</t>
-  </si>
-  <si>
-    <t>Age population, age 02, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
     <t>Female population 05-09</t>
   </si>
   <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
@@ -610,12 +766,12 @@
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 09, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
@@ -625,18 +781,21 @@
     <t>Age population, age 06, male, interpolated</t>
   </si>
   <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
     <t>Age population, age 11, female, interpolated</t>
   </si>
   <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
     <t>Male population 05-09</t>
   </si>
   <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
@@ -652,30 +811,42 @@
     <t>Age population, age 09, male, interpolated</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, female (number)</t>
   </si>
   <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
     <t>Start-up procedures to register a business, male (number)</t>
   </si>
   <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
     <t>Male population 10-14</t>
   </si>
   <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
@@ -691,30 +862,18 @@
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
-    <t>Improved water source, urban (% of urban population with access)</t>
-  </si>
-  <si>
     <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>Poverty gap at national poverty lines (%)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 19, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
     <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
@@ -724,9 +883,6 @@
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Forest area (sq. km)</t>
-  </si>
-  <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
@@ -745,19 +901,13 @@
     <t>Age population, age 20, male, interpolated</t>
   </si>
   <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 23, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Improved water source (% of population with access)</t>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Age population, age 22, male, interpolated</t>
@@ -766,6 +916,9 @@
     <t>Male population 20-24</t>
   </si>
   <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
@@ -775,103 +928,115 @@
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
     <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Improved sanitation facilities (% of population with access)</t>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
   </si>
   <si>
     <t>Population, female</t>
   </si>
   <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
     <t>Male population 25-29</t>
   </si>
   <si>
     <t>Population, total</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
     <t>Population, male</t>
   </si>
   <si>
+    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
     <t>Labor force, total</t>
   </si>
   <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Contraceptive prevalence, modern methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Contraceptive prevalence, any methods (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
     <t>Male population 30-34</t>
   </si>
   <si>
-    <t>Population, female (% of total)</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Contributing family workers, total (% of total employment)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, total</t>
   </si>
   <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Population ages 15-64, male</t>
   </si>
   <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Vulnerable employment, total (% of total employment)</t>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty line (% of population)</t>
+  </si>
+  <si>
+    <t>Poverty headcount ratio at national poverty lines (% of population)</t>
+  </si>
+  <si>
+    <t>Rural poverty headcount ratio at national poverty lines (% of rural population)</t>
   </si>
   <si>
     <t>Time required to start a business, female (days)</t>
@@ -880,10 +1045,22 @@
     <t>Time required to start a business, male (days)</t>
   </si>
   <si>
-    <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
+    <t>Urban poverty headcount ratio at national poverty lines (% of urban population)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
     <t>Expected years of schooling, female</t>
@@ -892,61 +1069,7 @@
     <t>Expected years of schooling, male</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult female (% of females ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult total (% of people ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, adult male (% of males ages 15 and above)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth female (% of females ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth total (% of people ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth male (% of males ages 15-24)</t>
-  </si>
-  <si>
-    <t>Literacy rate, youth (ages 15-24), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Ratio of young literate females to males (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
     <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1323,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>848.4089684171204</v>
+        <v>9691.879062592692</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1334,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>669.4207834095213</v>
+        <v>5198.488952846033</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1345,7 +1468,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>669.4207834093639</v>
+        <v>1134.957571215727</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1356,7 +1479,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>550.3360628225643</v>
+        <v>809.5321242362422</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1367,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>518.6889395119399</v>
+        <v>680.1086303504044</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1378,7 +1501,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>518.6889395119399</v>
+        <v>629.0372638152016</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1389,7 +1512,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>517.3216501020268</v>
+        <v>629.0372638151701</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1400,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>331.002199061531</v>
+        <v>526.4594395730619</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1411,7 +1534,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>311.2728754716547</v>
+        <v>499.9319314279155</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1422,7 +1545,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>274.5855016195517</v>
+        <v>496.350817598816</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1433,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>268.7503979248795</v>
+        <v>496.350817598816</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1444,7 +1567,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>225.4596133994453</v>
+        <v>482.9388522558004</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1455,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>214.1383948183918</v>
+        <v>409.2764580755799</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1466,7 +1589,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>208.5067034135541</v>
+        <v>408.0554650845856</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1477,7 +1600,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>193.0951164476676</v>
+        <v>408.0554650845856</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1488,7 +1611,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>189.9824208315995</v>
+        <v>332.0393738838989</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1499,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>181.3227619881992</v>
+        <v>312.6767833981352</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1510,7 +1633,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>178.389888956443</v>
+        <v>312.6767833981352</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1521,7 +1644,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>170.1813658364327</v>
+        <v>303.6235355451194</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1532,7 +1655,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>169.0728666317345</v>
+        <v>288.1395260910134</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1543,7 +1666,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>164.6628973424841</v>
+        <v>284.0109685458544</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1554,7 +1677,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>158.6667973260785</v>
+        <v>279.1887751060223</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1565,7 +1688,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>156.5342524764531</v>
+        <v>276.4098349291182</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1576,7 +1699,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>156.2948206392136</v>
+        <v>271.2358754857364</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1587,7 +1710,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>156.111580915393</v>
+        <v>247.8588057171716</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1598,7 +1721,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>156.111580915393</v>
+        <v>241.4546294903107</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1609,7 +1732,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>151.6989665978226</v>
+        <v>217.4342332770878</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1620,7 +1743,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>148.2922170127059</v>
+        <v>215.5883403264212</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1631,7 +1754,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>144.6238865035465</v>
+        <v>213.6800651136932</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1642,7 +1765,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>141.2210106777397</v>
+        <v>197.8720256840388</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1653,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>137.8368247037421</v>
+        <v>197.6554872002427</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1664,7 +1787,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>137.7552696346665</v>
+        <v>175.6613630598427</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1675,7 +1798,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>134.5939343727008</v>
+        <v>174.843098711722</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1686,7 +1809,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>133.7353977248391</v>
+        <v>170.3878399349836</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1697,7 +1820,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>131.3855735648006</v>
+        <v>166.7731462886993</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1708,7 +1831,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>130.4040874608945</v>
+        <v>158.5917500797069</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1719,7 +1842,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>127.0395034716544</v>
+        <v>157.4328464877337</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1730,7 +1853,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>126.485766408205</v>
+        <v>157.063785640706</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1741,7 +1864,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>124.7286787083759</v>
+        <v>155.6236789569793</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1752,7 +1875,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>123.9577211260941</v>
+        <v>155.3361107888398</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1763,7 +1886,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>123.6406395249684</v>
+        <v>154.7731362041015</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1774,7 +1897,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>123.3630885631699</v>
+        <v>149.8839294231558</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1785,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>123.2058701245376</v>
+        <v>146.4275676873529</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1796,7 +1919,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>122.723676204633</v>
+        <v>145.8800980888529</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1807,7 +1930,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>121.5968203972753</v>
+        <v>143.3444737702966</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1818,7 +1941,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>118.5954031169451</v>
+        <v>143.3444737702966</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1829,7 +1952,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>117.784092403642</v>
+        <v>142.6219863425953</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1840,7 +1963,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>110.9483668606099</v>
+        <v>138.4877152612642</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1851,7 +1974,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>110.4477538213146</v>
+        <v>137.2750909378201</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1862,7 +1985,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>105.6038086174389</v>
+        <v>133.7940882723999</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1873,7 +1996,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>103.1559809958823</v>
+        <v>132.0290415415329</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1884,7 +2007,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>101.2460269965443</v>
+        <v>130.4108660087723</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1895,7 +2018,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>96.5068629772954</v>
+        <v>130.1151563575431</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1906,7 +2029,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>94.76166999413218</v>
+        <v>129.9467221407392</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1917,7 +2040,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>91.65562228161598</v>
+        <v>128.2715522218217</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1928,7 +2051,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>91.2778351956523</v>
+        <v>127.1096385020453</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1939,7 +2062,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>89.30156915298051</v>
+        <v>123.4118961492613</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1950,7 +2073,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>86.75184994924946</v>
+        <v>121.5703094634936</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1961,7 +2084,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>84.41409451160251</v>
+        <v>121.5493961334449</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1972,7 +2095,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>82.20110035286081</v>
+        <v>121.4246886880399</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1983,7 +2106,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>78.63423687749541</v>
+        <v>117.1990682318903</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1994,7 +2117,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>77.99906380601254</v>
+        <v>115.4389768446409</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -2005,7 +2128,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>77.6264539647814</v>
+        <v>115.3474845326652</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2016,7 +2139,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>77.40413342104603</v>
+        <v>114.5594706018353</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -2027,7 +2150,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>77.1223860246368</v>
+        <v>113.6226844931169</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -2038,7 +2161,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>74.36445548997732</v>
+        <v>113.5826565189147</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2049,7 +2172,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>73.63425652515028</v>
+        <v>112.9437603425934</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -2060,7 +2183,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>72.92723248228788</v>
+        <v>112.0666314467761</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2071,7 +2194,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>72.92723248228788</v>
+        <v>111.7498161634351</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -2082,7 +2205,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>68.53368342613132</v>
+        <v>108.63617196794</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -2093,7 +2216,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>66.298330439822</v>
+        <v>102.0391455700177</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -2104,7 +2227,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>65.07699085955339</v>
+        <v>94.51188334625782</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -2115,7 +2238,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>65.07255643765758</v>
+        <v>93.71880979286753</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -2126,7 +2249,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>65.0081066642922</v>
+        <v>92.35682620403571</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2137,7 +2260,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>64.9970562317404</v>
+        <v>90.80514538118798</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2148,7 +2271,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>58.17066158147433</v>
+        <v>87.59278181455375</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2159,7 +2282,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>57.9333989387049</v>
+        <v>86.99366921907045</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2170,7 +2293,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>57.9310281995073</v>
+        <v>86.85330022914863</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2181,7 +2304,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>57.91267077017984</v>
+        <v>86.12142820080953</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2192,7 +2315,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>57.9106944423111</v>
+        <v>86.0471555670502</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2203,7 +2326,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>57.34465891697512</v>
+        <v>83.83233287284658</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2214,7 +2337,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>56.78884733082155</v>
+        <v>83.80857096464186</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2225,7 +2348,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>56.76550543822105</v>
+        <v>82.97776677184305</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2236,7 +2359,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>54.53037986441389</v>
+        <v>82.00306246273858</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2247,7 +2370,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>53.08638662124398</v>
+        <v>81.76758857970886</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2258,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>48.31333280400335</v>
+        <v>80.22667155225676</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2269,7 +2392,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>48.16137130281488</v>
+        <v>79.20578223917451</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2280,7 +2403,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>45.38061659460165</v>
+        <v>77.5157854880373</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2291,7 +2414,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>41.67775608931982</v>
+        <v>77.18406107334548</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2302,7 +2425,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>41.52370321030622</v>
+        <v>75.5047348000209</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2313,7 +2436,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>41.43439687975396</v>
+        <v>74.78504291311229</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2324,7 +2447,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>39.11850250203339</v>
+        <v>72.17640044612207</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2335,7 +2458,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>38.21255792227009</v>
+        <v>71.34841904846976</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2346,7 +2469,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>38.20722525079827</v>
+        <v>70.11890985315071</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2357,7 +2480,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>38.19352254073485</v>
+        <v>70.11392488219553</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2368,7 +2491,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>38.18399695751001</v>
+        <v>70.04141709937666</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2379,7 +2502,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>37.39633367668193</v>
+        <v>70.02898094755527</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2390,7 +2513,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>37.232384889892</v>
+        <v>69.25770708195103</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2401,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>36.07667870288417</v>
+        <v>67.34434231655837</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2412,7 +2535,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>35.0235516696782</v>
+        <v>65.92465715333887</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2423,7 +2546,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>34.68235893564339</v>
+        <v>64.60774172598211</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2434,7 +2557,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>34.22669800507244</v>
+        <v>64.56428750942263</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2445,7 +2568,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>34.22669800507244</v>
+        <v>64.55098950400998</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2456,7 +2579,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>33.88452015609901</v>
+        <v>64.50558525966915</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2467,7 +2590,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>33.83019418215464</v>
+        <v>64.44739407957358</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2478,7 +2601,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>33.75117004086846</v>
+        <v>64.38683349901045</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2489,7 +2612,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>33.51513963368343</v>
+        <v>61.94748354645408</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2500,7 +2623,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>32.54023166486181</v>
+        <v>61.9448534661075</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2511,7 +2634,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>32.3394506927933</v>
+        <v>61.92448613733112</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2522,7 +2645,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>32.10935118086264</v>
+        <v>61.92229295911955</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2533,7 +2656,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>31.6568187032724</v>
+        <v>60.6309482804136</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2544,7 +2667,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>30.45152547155269</v>
+        <v>59.34628405015142</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2555,7 +2678,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>28.88142673530879</v>
+        <v>59.15140149385049</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2566,7 +2689,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>28.29078418467108</v>
+        <v>58.49162382912331</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2577,7 +2700,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>28.28780272278393</v>
+        <v>57.424266749605</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2588,7 +2711,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>28.03193024185494</v>
+        <v>57.41578621922991</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2599,7 +2722,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>27.7597479573815</v>
+        <v>52.52466364008854</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2610,7 +2733,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>27.56425693772289</v>
+        <v>52.52466364008854</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2621,7 +2744,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>27.33330739386954</v>
+        <v>51.10341389979892</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2632,7 +2755,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>27.26651578303489</v>
+        <v>50.86103723315795</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2643,7 +2766,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>26.84956760785392</v>
+        <v>50.36876536882153</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2654,7 +2777,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>26.76703300618882</v>
+        <v>49.87080238568333</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2665,7 +2788,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>26.49219250150249</v>
+        <v>49.36480049487868</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2676,7 +2799,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>26.49219250150249</v>
+        <v>48.98823755708584</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2687,7 +2810,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>25.01212980016055</v>
+        <v>48.8087932847928</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2698,7 +2821,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>24.6828750697981</v>
+        <v>48.68666067559111</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2709,7 +2832,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>24.46099022464199</v>
+        <v>48.6040583606751</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2720,7 +2843,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>24.42123403785148</v>
+        <v>47.92820400678251</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2731,7 +2854,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>24.39936702075467</v>
+        <v>47.63558971945076</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2742,7 +2865,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>23.91272342411063</v>
+        <v>47.34267306386828</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2753,7 +2876,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>23.87693245640331</v>
+        <v>47.11316111858613</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2764,7 +2887,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>23.57436278769286</v>
+        <v>47.02133145416548</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2775,7 +2898,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>23.45273765053889</v>
+        <v>46.52959550003694</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2786,7 +2909,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>23.38547837842966</v>
+        <v>46.20321376595903</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2797,7 +2920,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>23.31923446255396</v>
+        <v>45.91753779308533</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2808,7 +2931,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>23.31573588069104</v>
+        <v>45.88230355900436</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2819,7 +2942,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>23.3007523660027</v>
+        <v>42.61189312717568</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2830,7 +2953,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>23.21311417279246</v>
+        <v>41.00889460566474</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2841,7 +2964,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>23.19480137104859</v>
+        <v>38.83605734867718</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2852,7 +2975,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>23.143074504645</v>
+        <v>37.44657604258217</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2863,7 +2986,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>23.1384245459549</v>
+        <v>37.41126379199929</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2874,7 +2997,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>23.13744888958939</v>
+        <v>37.1421640732482</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2885,7 +3008,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>22.93249740946421</v>
+        <v>36.14287272856022</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2896,7 +3019,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>22.91430233330037</v>
+        <v>35.55010437877931</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2907,7 +3030,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>22.86082963056211</v>
+        <v>35.33284681493447</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2918,7 +3041,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>22.78999220975876</v>
+        <v>35.27199870486469</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2929,10 +3052,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>22.78071968626967</v>
+        <v>35.2671124365344</v>
       </c>
       <c r="C148">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2940,10 +3063,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>22.63823907178643</v>
+        <v>35.25403926618267</v>
       </c>
       <c r="C149">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2951,10 +3074,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>22.54951110678407</v>
+        <v>35.24505516227492</v>
       </c>
       <c r="C150">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2962,10 +3085,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>22.48071190865741</v>
+        <v>35.18148007462187</v>
       </c>
       <c r="C151">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2973,10 +3096,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>22.41889760299089</v>
+        <v>35.08947204443595</v>
       </c>
       <c r="C152">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2984,10 +3107,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>22.36780325061799</v>
+        <v>34.80838954300475</v>
       </c>
       <c r="C153">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2995,10 +3118,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>22.30265448392027</v>
+        <v>34.62390598150843</v>
       </c>
       <c r="C154">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -3006,10 +3129,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>22.22264694857482</v>
+        <v>34.47229920242941</v>
       </c>
       <c r="C155">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -3017,10 +3140,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>22.13691974580244</v>
+        <v>34.25380169882801</v>
       </c>
       <c r="C156">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -3028,10 +3151,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>22.118855315713</v>
+        <v>33.62592262928504</v>
       </c>
       <c r="C157">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -3039,10 +3162,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>22.11668330000086</v>
+        <v>33.62592262928504</v>
       </c>
       <c r="C158">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -3050,10 +3173,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>22.11605398359951</v>
+        <v>33.42426591394582</v>
       </c>
       <c r="C159">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -3061,10 +3184,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>21.73185589549405</v>
+        <v>32.41603992679782</v>
       </c>
       <c r="C160">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -3072,10 +3195,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>21.64645650440061</v>
+        <v>32.40794968249196</v>
       </c>
       <c r="C161">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -3083,10 +3206,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>21.52626143066255</v>
+        <v>32.40701731739445</v>
       </c>
       <c r="C162">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -3094,10 +3217,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>21.51527146212597</v>
+        <v>32.40175359188033</v>
       </c>
       <c r="C163">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -3105,10 +3228,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>20.80143305032741</v>
+        <v>32.14158827196844</v>
       </c>
       <c r="C164">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -3116,10 +3239,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>20.7820547348946</v>
+        <v>31.71954725945028</v>
       </c>
       <c r="C165">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -3127,10 +3250,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>20.7669388308103</v>
+        <v>30.8191922846165</v>
       </c>
       <c r="C166">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -3138,10 +3261,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>20.74592165276121</v>
+        <v>30.65236452745408</v>
       </c>
       <c r="C167">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -3149,10 +3272,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>19.5797371587467</v>
+        <v>29.70993380268521</v>
       </c>
       <c r="C168">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -3160,10 +3283,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>18.37150574851651</v>
+        <v>29.70501312398857</v>
       </c>
       <c r="C169">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -3171,10 +3294,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>18.3126096802971</v>
+        <v>29.6813806186123</v>
       </c>
       <c r="C170">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -3182,10 +3305,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>17.85331430423333</v>
+        <v>29.5884219186302</v>
       </c>
       <c r="C171">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -3193,10 +3316,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>17.69929549446496</v>
+        <v>29.5758426834726</v>
       </c>
       <c r="C172">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -3204,10 +3327,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>17.67810107412692</v>
+        <v>29.38798617989234</v>
       </c>
       <c r="C173">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -3215,10 +3338,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>17.55960356478707</v>
+        <v>27.89133872564999</v>
       </c>
       <c r="C174">
-        <v>5e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -3226,10 +3349,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>16.92047187810019</v>
+        <v>27.64343323363306</v>
       </c>
       <c r="C175">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -3237,10 +3360,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>16.59295970085317</v>
+        <v>26.78278245749406</v>
       </c>
       <c r="C176">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -3248,10 +3371,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>15.9375263972969</v>
+        <v>26.64835224932603</v>
       </c>
       <c r="C177">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -3259,10 +3382,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>15.58659957144393</v>
+        <v>26.17244388207967</v>
       </c>
       <c r="C178">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -3270,10 +3393,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>15.50489628442345</v>
+        <v>25.81855587554396</v>
       </c>
       <c r="C179">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3281,10 +3404,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>15.48682825186733</v>
+        <v>25.81855587554396</v>
       </c>
       <c r="C180">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3292,10 +3415,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>15.47572279591436</v>
+        <v>25.79593893251351</v>
       </c>
       <c r="C181">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3303,10 +3426,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>15.44301714925706</v>
+        <v>25.79593893251351</v>
       </c>
       <c r="C182">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3314,10 +3437,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>15.4342328254596</v>
+        <v>25.43059438291831</v>
       </c>
       <c r="C183">
-        <v>0.00014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3325,10 +3448,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>15.36696328487901</v>
+        <v>24.66504680767738</v>
       </c>
       <c r="C184">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3336,10 +3459,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>15.26896155114179</v>
+        <v>23.72943725391055</v>
       </c>
       <c r="C185">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3347,10 +3470,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>15.23273667437641</v>
+        <v>23.36829821210574</v>
       </c>
       <c r="C186">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3358,10 +3481,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>15.17930671114898</v>
+        <v>23.33181267530825</v>
       </c>
       <c r="C187">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3369,10 +3492,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>15.16997090011329</v>
+        <v>23.23437697295835</v>
       </c>
       <c r="C188">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3380,10 +3503,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>15.16856820785507</v>
+        <v>23.0551267951503</v>
       </c>
       <c r="C189">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3391,10 +3514,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>15.15744003792005</v>
+        <v>22.50796994556313</v>
       </c>
       <c r="C190">
-        <v>0.00016</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3402,10 +3525,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>15.15505323626868</v>
+        <v>21.52642215032069</v>
       </c>
       <c r="C191">
-        <v>0.00016</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3413,10 +3536,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>15.11672599255659</v>
+        <v>21.14659090514872</v>
       </c>
       <c r="C192">
-        <v>0.00016</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3424,10 +3547,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>15.10855460187234</v>
+        <v>20.66290701351522</v>
       </c>
       <c r="C193">
-        <v>0.00016</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3435,10 +3558,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>15.09634122133003</v>
+        <v>18.30157602090135</v>
       </c>
       <c r="C194">
-        <v>0.00017</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3446,10 +3569,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>15.09533620946025</v>
+        <v>18.23316918157292</v>
       </c>
       <c r="C195">
-        <v>0.00017</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3457,10 +3580,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>15.03791035683655</v>
+        <v>18.16129675458483</v>
       </c>
       <c r="C196">
-        <v>0.00017</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3468,10 +3591,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>15.01340730424197</v>
+        <v>18.1536723544617</v>
       </c>
       <c r="C197">
-        <v>0.00017</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3479,10 +3602,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>14.93247562446565</v>
+        <v>18.13388254892135</v>
       </c>
       <c r="C198">
-        <v>0.00018</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3490,10 +3613,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>14.91986206079111</v>
+        <v>18.07093293057031</v>
       </c>
       <c r="C199">
-        <v>0.00018</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3501,10 +3624,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>14.88641666085692</v>
+        <v>18.01233854170539</v>
       </c>
       <c r="C200">
-        <v>0.00018</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3512,10 +3635,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>14.8487294340633</v>
+        <v>17.98783608240256</v>
       </c>
       <c r="C201">
-        <v>0.00019</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3523,10 +3646,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>14.80660906077324</v>
+        <v>17.87633841431269</v>
       </c>
       <c r="C202">
-        <v>0.00019</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3534,10 +3657,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>14.75641761562287</v>
+        <v>17.76824872780168</v>
       </c>
       <c r="C203">
-        <v>0.00019</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3545,10 +3668,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>14.70851093853157</v>
+        <v>17.64846839609721</v>
       </c>
       <c r="C204">
-        <v>0.0002</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3556,10 +3679,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>14.69698077631919</v>
+        <v>17.63476809192745</v>
       </c>
       <c r="C205">
-        <v>0.0002</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3567,10 +3690,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>14.68723287259406</v>
+        <v>17.62249889329103</v>
       </c>
       <c r="C206">
-        <v>0.0002</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3578,10 +3701,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>14.64969723033037</v>
+        <v>17.6224988932908</v>
       </c>
       <c r="C207">
-        <v>0.0002</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3589,10 +3712,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>14.64349551426396</v>
+        <v>17.54093333208693</v>
       </c>
       <c r="C208">
-        <v>0.0002</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3600,10 +3723,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>14.58794815065359</v>
+        <v>17.43133230166774</v>
       </c>
       <c r="C209">
-        <v>0.00021</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3611,10 +3734,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>14.52597228204511</v>
+        <v>17.36326770685445</v>
       </c>
       <c r="C210">
-        <v>0.00022</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3622,10 +3745,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>14.47955649167419</v>
+        <v>17.29668913612616</v>
       </c>
       <c r="C211">
-        <v>0.00022</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3633,10 +3756,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>14.47489283339113</v>
+        <v>17.24348713113368</v>
       </c>
       <c r="C212">
-        <v>0.00022</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3644,10 +3767,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>14.43755164300696</v>
+        <v>17.18547812155978</v>
       </c>
       <c r="C213">
-        <v>0.00023</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3655,10 +3778,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>14.37945463149677</v>
+        <v>17.17906184235904</v>
       </c>
       <c r="C214">
-        <v>0.00023</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3666,10 +3789,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>14.37088074288868</v>
+        <v>17.10233626411568</v>
       </c>
       <c r="C215">
-        <v>0.00023</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3677,10 +3800,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>14.26031528222633</v>
+        <v>17.02728850825333</v>
       </c>
       <c r="C216">
-        <v>0.00025</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3688,10 +3811,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>14.21627267213116</v>
+        <v>17.01264136174803</v>
       </c>
       <c r="C217">
-        <v>0.00025</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3699,10 +3822,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>14.15294902412284</v>
+        <v>17.00470026427069</v>
       </c>
       <c r="C218">
-        <v>0.00026</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3710,10 +3833,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>14.14627066873823</v>
+        <v>16.74718123306807</v>
       </c>
       <c r="C219">
-        <v>0.00026</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3721,10 +3844,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>14.05083076504942</v>
+        <v>16.61349616363769</v>
       </c>
       <c r="C220">
-        <v>0.00027</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3732,10 +3855,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>14.02902705519684</v>
+        <v>16.44555497279364</v>
       </c>
       <c r="C221">
-        <v>0.00027</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3743,10 +3866,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>13.91913213638094</v>
+        <v>16.43934643544853</v>
       </c>
       <c r="C222">
-        <v>0.00029</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3754,10 +3877,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>13.90116741242696</v>
+        <v>16.0645447562027</v>
       </c>
       <c r="C223">
-        <v>0.00029</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3765,10 +3888,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>13.89381519028131</v>
+        <v>16.02043931721493</v>
       </c>
       <c r="C224">
-        <v>0.00029</v>
+        <v>0.00011</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3776,10 +3899,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>13.80093961165124</v>
+        <v>15.62620279773525</v>
       </c>
       <c r="C225">
-        <v>0.00031</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3787,10 +3910,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>13.76022472742155</v>
+        <v>15.14874002078479</v>
       </c>
       <c r="C226">
-        <v>0.00031</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3798,10 +3921,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>13.74937257237933</v>
+        <v>15.10950120462022</v>
       </c>
       <c r="C227">
-        <v>0.00031</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3809,10 +3932,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>13.71855164200672</v>
+        <v>15.05298943667685</v>
       </c>
       <c r="C228">
-        <v>0.00032</v>
+        <v>0.00017</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3820,10 +3943,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>13.64079357225857</v>
+        <v>14.94381444039641</v>
       </c>
       <c r="C229">
-        <v>0.00033</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3831,10 +3954,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>13.62864928275593</v>
+        <v>14.84005669278761</v>
       </c>
       <c r="C230">
-        <v>0.00033</v>
+        <v>0.00019</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3842,10 +3965,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>13.61133149515617</v>
+        <v>14.73630736982669</v>
       </c>
       <c r="C231">
-        <v>0.00034</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3853,10 +3976,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>13.52184108255314</v>
+        <v>14.15187129587644</v>
       </c>
       <c r="C232">
-        <v>0.00035</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3864,10 +3987,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>13.50859825896386</v>
+        <v>14.09371062261887</v>
       </c>
       <c r="C233">
-        <v>0.00035</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3875,10 +3998,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>13.47531660430574</v>
+        <v>14.05331645430806</v>
       </c>
       <c r="C234">
-        <v>0.00036</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3886,10 +4009,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>13.46025271939395</v>
+        <v>14.04876124573503</v>
       </c>
       <c r="C235">
-        <v>0.00036</v>
+        <v>0.00028</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3897,10 +4020,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>13.43388215336217</v>
+        <v>13.9937427053892</v>
       </c>
       <c r="C236">
-        <v>0.00036</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3908,10 +4031,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>13.34943772343459</v>
+        <v>13.91525768306824</v>
       </c>
       <c r="C237">
-        <v>0.00038</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3919,10 +4042,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>13.31083931103103</v>
+        <v>13.8436054388013</v>
       </c>
       <c r="C238">
-        <v>0.00039</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3930,10 +4053,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>13.17455570709271</v>
+        <v>13.8085278666875</v>
       </c>
       <c r="C239">
-        <v>0.00041</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3941,10 +4064,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>13.12875256159875</v>
+        <v>13.80042469334484</v>
       </c>
       <c r="C240">
-        <v>0.00042</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3952,10 +4075,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>13.08522566154804</v>
+        <v>13.75921482307586</v>
       </c>
       <c r="C241">
-        <v>0.00043</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3963,10 +4086,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>13.03320110214178</v>
+        <v>13.75558441700291</v>
       </c>
       <c r="C242">
-        <v>0.00044</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3974,10 +4097,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>12.85502351492407</v>
+        <v>13.71208451276202</v>
       </c>
       <c r="C243">
-        <v>0.00048</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3985,10 +4108,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>12.85367778940919</v>
+        <v>13.69900499145393</v>
       </c>
       <c r="C244">
-        <v>0.00048</v>
+        <v>0.00033</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3996,10 +4119,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>12.77431056275422</v>
+        <v>13.64446612066905</v>
       </c>
       <c r="C245">
-        <v>0.0005</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -4007,10 +4130,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>12.70306902109919</v>
+        <v>13.63895815162438</v>
       </c>
       <c r="C246">
-        <v>0.00052</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -4018,10 +4141,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>12.62985201904768</v>
+        <v>13.62295878987232</v>
       </c>
       <c r="C247">
-        <v>0.00054</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -4029,10 +4152,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>12.61928571592213</v>
+        <v>13.60373312920453</v>
       </c>
       <c r="C248">
-        <v>0.00054</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -4040,10 +4163,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>12.58364264884512</v>
+        <v>13.53928219586016</v>
       </c>
       <c r="C249">
-        <v>0.00055</v>
+        <v>0.00036</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -4051,10 +4174,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>12.52330634464514</v>
+        <v>13.47454164341577</v>
       </c>
       <c r="C250">
-        <v>0.00057</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -4062,10 +4185,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>12.37843987956487</v>
+        <v>13.46075768686793</v>
       </c>
       <c r="C251">
-        <v>0.00061</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -4073,10 +4196,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>12.33868339281634</v>
+        <v>13.45049464373015</v>
       </c>
       <c r="C252">
-        <v>0.00062</v>
+        <v>0.00037</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -4084,10 +4207,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>12.21107475306974</v>
+        <v>13.38277286147672</v>
       </c>
       <c r="C253">
-        <v>0.00066</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -4095,10 +4218,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>12.16279675099032</v>
+        <v>13.35424388508057</v>
       </c>
       <c r="C254">
-        <v>0.00068</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -4106,10 +4229,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>12.15774314272578</v>
+        <v>13.30263099314545</v>
       </c>
       <c r="C255">
-        <v>0.00068</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -4117,10 +4240,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>12.1500247264325</v>
+        <v>13.29805305266337</v>
       </c>
       <c r="C256">
-        <v>0.00068</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -4128,10 +4251,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>12.00881530789256</v>
+        <v>13.26646856388943</v>
       </c>
       <c r="C257">
-        <v>0.00073</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4139,10 +4262,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>11.99634095196252</v>
+        <v>13.25686397854646</v>
       </c>
       <c r="C258">
-        <v>0.00073</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4150,10 +4273,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>11.68269445550298</v>
+        <v>13.24078041043532</v>
       </c>
       <c r="C259">
-        <v>0.00085</v>
+        <v>0.00041</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4161,10 +4284,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>11.65587187740685</v>
+        <v>13.20127020163561</v>
       </c>
       <c r="C260">
-        <v>0.00087</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4172,10 +4295,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>11.55888029491552</v>
+        <v>13.19577957269712</v>
       </c>
       <c r="C261">
-        <v>0.00091</v>
+        <v>0.00042</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4183,10 +4306,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>11.53662532330017</v>
+        <v>13.13319204028771</v>
       </c>
       <c r="C262">
-        <v>0.00092</v>
+        <v>0.00043</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4194,10 +4317,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>11.52679085984002</v>
+        <v>13.08851010333188</v>
       </c>
       <c r="C263">
-        <v>0.00092</v>
+        <v>0.00044</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4205,10 +4328,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>11.22489088484185</v>
+        <v>13.0322335299427</v>
       </c>
       <c r="C264">
-        <v>0.00107</v>
+        <v>0.00045</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4216,10 +4339,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>11.16521708398792</v>
+        <v>12.96895008496178</v>
       </c>
       <c r="C265">
-        <v>0.0011</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4227,10 +4350,10 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>11.08834379854683</v>
+        <v>12.95327400811765</v>
       </c>
       <c r="C266">
-        <v>0.00114</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="267" spans="1:3">
@@ -4238,10 +4361,10 @@
         <v>267</v>
       </c>
       <c r="B267">
-        <v>10.96838936176237</v>
+        <v>12.93559945803563</v>
       </c>
       <c r="C267">
-        <v>0.00121</v>
+        <v>0.00048</v>
       </c>
     </row>
     <row r="268" spans="1:3">
@@ -4249,10 +4372,10 @@
         <v>268</v>
       </c>
       <c r="B268">
-        <v>10.77369010431354</v>
+        <v>12.87482317714517</v>
       </c>
       <c r="C268">
-        <v>0.00134</v>
+        <v>0.00049</v>
       </c>
     </row>
     <row r="269" spans="1:3">
@@ -4260,10 +4383,10 @@
         <v>269</v>
       </c>
       <c r="B269">
-        <v>10.47121815115131</v>
+        <v>12.83968803622284</v>
       </c>
       <c r="C269">
-        <v>0.00155</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -4271,10 +4394,10 @@
         <v>270</v>
       </c>
       <c r="B270">
-        <v>10.38408864379826</v>
+        <v>12.8321905861726</v>
       </c>
       <c r="C270">
-        <v>0.00162</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="271" spans="1:3">
@@ -4282,10 +4405,10 @@
         <v>271</v>
       </c>
       <c r="B271">
-        <v>10.36841991998668</v>
+        <v>12.80259399504098</v>
       </c>
       <c r="C271">
-        <v>0.00164</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="272" spans="1:3">
@@ -4293,10 +4416,10 @@
         <v>272</v>
       </c>
       <c r="B272">
-        <v>10.25611707870029</v>
+        <v>12.79881755982874</v>
       </c>
       <c r="C272">
-        <v>0.00173</v>
+        <v>0.00051</v>
       </c>
     </row>
     <row r="273" spans="1:3">
@@ -4304,10 +4427,10 @@
         <v>273</v>
       </c>
       <c r="B273">
-        <v>10.22870429189104</v>
+        <v>12.74977941552502</v>
       </c>
       <c r="C273">
-        <v>0.00176</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="274" spans="1:3">
@@ -4315,10 +4438,10 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>10.05378450392751</v>
+        <v>12.74381689083037</v>
       </c>
       <c r="C274">
-        <v>0.00192</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="275" spans="1:3">
@@ -4326,10 +4449,10 @@
         <v>275</v>
       </c>
       <c r="B275">
-        <v>9.982128704481063</v>
+        <v>12.73705633254514</v>
       </c>
       <c r="C275">
-        <v>0.00199</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="276" spans="1:3">
@@ -4337,10 +4460,10 @@
         <v>276</v>
       </c>
       <c r="B276">
-        <v>9.954053120310665</v>
+        <v>12.69800513987027</v>
       </c>
       <c r="C276">
-        <v>0.00201</v>
+        <v>0.00053</v>
       </c>
     </row>
     <row r="277" spans="1:3">
@@ -4348,10 +4471,10 @@
         <v>277</v>
       </c>
       <c r="B277">
-        <v>9.954053120290354</v>
+        <v>12.65179239843528</v>
       </c>
       <c r="C277">
-        <v>0.00201</v>
+        <v>0.00055</v>
       </c>
     </row>
     <row r="278" spans="1:3">
@@ -4359,10 +4482,10 @@
         <v>278</v>
       </c>
       <c r="B278">
-        <v>9.945186674132957</v>
+        <v>12.64423921299851</v>
       </c>
       <c r="C278">
-        <v>0.00202</v>
+        <v>0.00055</v>
       </c>
     </row>
     <row r="279" spans="1:3">
@@ -4370,10 +4493,10 @@
         <v>279</v>
       </c>
       <c r="B279">
-        <v>9.94103071149444</v>
+        <v>12.53765476908705</v>
       </c>
       <c r="C279">
-        <v>0.00203</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="280" spans="1:3">
@@ -4381,10 +4504,10 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>9.874395150314781</v>
+        <v>12.5309930938384</v>
       </c>
       <c r="C280">
-        <v>0.0021</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="281" spans="1:3">
@@ -4392,10 +4515,10 @@
         <v>281</v>
       </c>
       <c r="B281">
-        <v>9.807830334448086</v>
+        <v>12.51101481416082</v>
       </c>
       <c r="C281">
-        <v>0.00217</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="282" spans="1:3">
@@ -4403,10 +4526,10 @@
         <v>282</v>
       </c>
       <c r="B282">
-        <v>9.566134179052504</v>
+        <v>12.40341718765281</v>
       </c>
       <c r="C282">
-        <v>0.00245</v>
+        <v>0.00062</v>
       </c>
     </row>
     <row r="283" spans="1:3">
@@ -4414,10 +4537,10 @@
         <v>283</v>
       </c>
       <c r="B283">
-        <v>9.449471128599932</v>
+        <v>12.38507963196518</v>
       </c>
       <c r="C283">
-        <v>0.0026</v>
+        <v>0.00062</v>
       </c>
     </row>
     <row r="284" spans="1:3">
@@ -4425,10 +4548,10 @@
         <v>284</v>
       </c>
       <c r="B284">
-        <v>9.372569072184129</v>
+        <v>12.28464296139375</v>
       </c>
       <c r="C284">
-        <v>0.0027</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="285" spans="1:3">
@@ -4436,10 +4559,10 @@
         <v>285</v>
       </c>
       <c r="B285">
-        <v>9.298063272268031</v>
+        <v>12.27062265952472</v>
       </c>
       <c r="C285">
-        <v>0.00281</v>
+        <v>0.00066</v>
       </c>
     </row>
     <row r="286" spans="1:3">
@@ -4447,10 +4570,10 @@
         <v>286</v>
       </c>
       <c r="B286">
-        <v>9.238636101519559</v>
+        <v>12.18642874744749</v>
       </c>
       <c r="C286">
-        <v>0.00289</v>
+        <v>0.00068</v>
       </c>
     </row>
     <row r="287" spans="1:3">
@@ -4458,10 +4581,10 @@
         <v>287</v>
       </c>
       <c r="B287">
-        <v>9.210721336994361</v>
+        <v>12.15336770942478</v>
       </c>
       <c r="C287">
-        <v>0.00293</v>
+        <v>0.00069</v>
       </c>
     </row>
     <row r="288" spans="1:3">
@@ -4469,10 +4592,10 @@
         <v>288</v>
       </c>
       <c r="B288">
-        <v>9.206203272026949</v>
+        <v>12.13772952494915</v>
       </c>
       <c r="C288">
-        <v>0.00294</v>
+        <v>0.0007</v>
       </c>
     </row>
     <row r="289" spans="1:3">
@@ -4480,10 +4603,10 @@
         <v>289</v>
       </c>
       <c r="B289">
-        <v>9.125706953450527</v>
+        <v>12.05117730022174</v>
       </c>
       <c r="C289">
-        <v>0.00306</v>
+        <v>0.00073</v>
       </c>
     </row>
     <row r="290" spans="1:3">
@@ -4491,10 +4614,10 @@
         <v>290</v>
       </c>
       <c r="B290">
-        <v>9.028866967959621</v>
+        <v>12.0078014682669</v>
       </c>
       <c r="C290">
-        <v>0.00322</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="291" spans="1:3">
@@ -4502,10 +4625,10 @@
         <v>291</v>
       </c>
       <c r="B291">
-        <v>9.019384980435772</v>
+        <v>11.89155462534183</v>
       </c>
       <c r="C291">
-        <v>0.00323</v>
+        <v>0.00079</v>
       </c>
     </row>
     <row r="292" spans="1:3">
@@ -4513,10 +4636,10 @@
         <v>292</v>
       </c>
       <c r="B292">
-        <v>8.874431024216594</v>
+        <v>11.85717232791882</v>
       </c>
       <c r="C292">
-        <v>0.00348</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="293" spans="1:3">
@@ -4524,10 +4647,10 @@
         <v>293</v>
       </c>
       <c r="B293">
-        <v>8.271938135781919</v>
+        <v>11.81157500530428</v>
       </c>
       <c r="C293">
-        <v>0.00474</v>
+        <v>0.00082</v>
       </c>
     </row>
     <row r="294" spans="1:3">
@@ -4535,10 +4658,10 @@
         <v>294</v>
       </c>
       <c r="B294">
-        <v>8.259606228132016</v>
+        <v>11.77097725582281</v>
       </c>
       <c r="C294">
-        <v>0.00477</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="295" spans="1:3">
@@ -4546,10 +4669,10 @@
         <v>295</v>
       </c>
       <c r="B295">
-        <v>8.247966010661433</v>
+        <v>11.61360969404075</v>
       </c>
       <c r="C295">
-        <v>0.0048</v>
+        <v>0.0009</v>
       </c>
     </row>
     <row r="296" spans="1:3">
@@ -4557,10 +4680,10 @@
         <v>296</v>
       </c>
       <c r="B296">
-        <v>8.222461617810163</v>
+        <v>11.60782688355112</v>
       </c>
       <c r="C296">
-        <v>0.00486</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="297" spans="1:3">
@@ -4568,10 +4691,10 @@
         <v>297</v>
       </c>
       <c r="B297">
-        <v>8.220698625822532</v>
+        <v>11.49387325088293</v>
       </c>
       <c r="C297">
-        <v>0.00487</v>
+        <v>0.00096</v>
       </c>
     </row>
     <row r="298" spans="1:3">
@@ -4579,10 +4702,10 @@
         <v>298</v>
       </c>
       <c r="B298">
-        <v>8.218961415218482</v>
+        <v>11.40248471274012</v>
       </c>
       <c r="C298">
-        <v>0.00487</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="299" spans="1:3">
@@ -4590,10 +4713,10 @@
         <v>299</v>
       </c>
       <c r="B299">
-        <v>8.206961769587162</v>
+        <v>11.36641633211561</v>
       </c>
       <c r="C299">
-        <v>0.0049</v>
+        <v>0.00102</v>
       </c>
     </row>
     <row r="300" spans="1:3">
@@ -4601,10 +4724,10 @@
         <v>300</v>
       </c>
       <c r="B300">
-        <v>8.206961769587162</v>
+        <v>11.31316970381847</v>
       </c>
       <c r="C300">
-        <v>0.0049</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="301" spans="1:3">
@@ -4612,10 +4735,10 @@
         <v>301</v>
       </c>
       <c r="B301">
-        <v>8.196290055909911</v>
+        <v>11.29622401809961</v>
       </c>
       <c r="C301">
-        <v>0.00493</v>
+        <v>0.00105</v>
       </c>
     </row>
     <row r="302" spans="1:3">
@@ -4623,10 +4746,10 @@
         <v>302</v>
       </c>
       <c r="B302">
-        <v>7.988139805120484</v>
+        <v>11.25940390256737</v>
       </c>
       <c r="C302">
-        <v>0.00549</v>
+        <v>0.00107</v>
       </c>
     </row>
     <row r="303" spans="1:3">
@@ -4634,10 +4757,10 @@
         <v>303</v>
       </c>
       <c r="B303">
-        <v>7.986093076513979</v>
+        <v>11.14512566418262</v>
       </c>
       <c r="C303">
-        <v>0.0055</v>
+        <v>0.00114</v>
       </c>
     </row>
     <row r="304" spans="1:3">
@@ -4645,10 +4768,10 @@
         <v>304</v>
       </c>
       <c r="B304">
-        <v>7.901123368179953</v>
+        <v>11.12233599963577</v>
       </c>
       <c r="C304">
-        <v>0.00574</v>
+        <v>0.00115</v>
       </c>
     </row>
     <row r="305" spans="1:3">
@@ -4656,10 +4779,10 @@
         <v>305</v>
       </c>
       <c r="B305">
-        <v>7.445336618771543</v>
+        <v>11.0203029159222</v>
       </c>
       <c r="C305">
-        <v>0.00728</v>
+        <v>0.00121</v>
       </c>
     </row>
     <row r="306" spans="1:3">
@@ -4667,10 +4790,10 @@
         <v>306</v>
       </c>
       <c r="B306">
-        <v>7.31949502225115</v>
+        <v>11.00235916428003</v>
       </c>
       <c r="C306">
-        <v>0.00778</v>
+        <v>0.00122</v>
       </c>
     </row>
     <row r="307" spans="1:3">
@@ -4678,10 +4801,10 @@
         <v>307</v>
       </c>
       <c r="B307">
-        <v>7.26417148408713</v>
+        <v>10.94836919008594</v>
       </c>
       <c r="C307">
-        <v>0.00801</v>
+        <v>0.00125</v>
       </c>
     </row>
     <row r="308" spans="1:3">
@@ -4689,10 +4812,10 @@
         <v>308</v>
       </c>
       <c r="B308">
-        <v>7.253745245258377</v>
+        <v>10.8715147707232</v>
       </c>
       <c r="C308">
-        <v>0.00805</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="309" spans="1:3">
@@ -4700,10 +4823,10 @@
         <v>309</v>
       </c>
       <c r="B309">
-        <v>6.980993243984999</v>
+        <v>10.83815934067439</v>
       </c>
       <c r="C309">
-        <v>0.009299999999999999</v>
+        <v>0.00132</v>
       </c>
     </row>
     <row r="310" spans="1:3">
@@ -4711,10 +4834,461 @@
         <v>310</v>
       </c>
       <c r="B310">
-        <v>6.946486984147959</v>
+        <v>10.77696804909333</v>
       </c>
       <c r="C310">
-        <v>0.009469999999999999</v>
+        <v>0.00136</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B311">
+        <v>10.7525406185358</v>
+      </c>
+      <c r="C311">
+        <v>0.00138</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B312">
+        <v>10.50738837460131</v>
+      </c>
+      <c r="C312">
+        <v>0.00156</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B313">
+        <v>10.35284702806758</v>
+      </c>
+      <c r="C313">
+        <v>0.00168</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B314">
+        <v>10.2614888354913</v>
+      </c>
+      <c r="C314">
+        <v>0.00176</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B315">
+        <v>10.21142306436872</v>
+      </c>
+      <c r="C315">
+        <v>0.0018</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B316">
+        <v>10.11651576142235</v>
+      </c>
+      <c r="C316">
+        <v>0.00189</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B317">
+        <v>10.11491934349029</v>
+      </c>
+      <c r="C317">
+        <v>0.00189</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B318">
+        <v>10.0117864984195</v>
+      </c>
+      <c r="C318">
+        <v>0.00199</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B319">
+        <v>9.978149799638361</v>
+      </c>
+      <c r="C319">
+        <v>0.00202</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B320">
+        <v>9.931396438277421</v>
+      </c>
+      <c r="C320">
+        <v>0.00207</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B321">
+        <v>9.846785096308935</v>
+      </c>
+      <c r="C321">
+        <v>0.00216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B322">
+        <v>9.798284304359095</v>
+      </c>
+      <c r="C322">
+        <v>0.00221</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B323">
+        <v>9.798284304348124</v>
+      </c>
+      <c r="C323">
+        <v>0.00221</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B324">
+        <v>9.7499919305889</v>
+      </c>
+      <c r="C324">
+        <v>0.00227</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B325">
+        <v>9.633109511005031</v>
+      </c>
+      <c r="C325">
+        <v>0.00241</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B326">
+        <v>9.502780274634105</v>
+      </c>
+      <c r="C326">
+        <v>0.00257</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B327">
+        <v>9.494606038260631</v>
+      </c>
+      <c r="C327">
+        <v>0.00258</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B328">
+        <v>9.189922226582024</v>
+      </c>
+      <c r="C328">
+        <v>0.00301</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B329">
+        <v>9.096059895235657</v>
+      </c>
+      <c r="C329">
+        <v>0.00315</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B330">
+        <v>9.065270037826677</v>
+      </c>
+      <c r="C330">
+        <v>0.0032</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B331">
+        <v>9.05752216108421</v>
+      </c>
+      <c r="C331">
+        <v>0.00322</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B332">
+        <v>8.970334827645262</v>
+      </c>
+      <c r="C332">
+        <v>0.00336</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B333">
+        <v>8.941229300232619</v>
+      </c>
+      <c r="C333">
+        <v>0.00341</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B334">
+        <v>8.869235335140614</v>
+      </c>
+      <c r="C334">
+        <v>0.00354</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B335">
+        <v>8.852930162993738</v>
+      </c>
+      <c r="C335">
+        <v>0.00357</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B336">
+        <v>8.646396855839734</v>
+      </c>
+      <c r="C336">
+        <v>0.00396</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B337">
+        <v>8.207141560189431</v>
+      </c>
+      <c r="C337">
+        <v>0.00496</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B338">
+        <v>8.157246528644896</v>
+      </c>
+      <c r="C338">
+        <v>0.00509</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B339">
+        <v>8.157246528644896</v>
+      </c>
+      <c r="C339">
+        <v>0.00509</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B340">
+        <v>8.148244663702433</v>
+      </c>
+      <c r="C340">
+        <v>0.00511</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B341">
+        <v>8.103541401619713</v>
+      </c>
+      <c r="C341">
+        <v>0.00523</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B342">
+        <v>8.078761677505829</v>
+      </c>
+      <c r="C342">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B343">
+        <v>8.028210852358171</v>
+      </c>
+      <c r="C343">
+        <v>0.00544</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B344">
+        <v>7.970230167554354</v>
+      </c>
+      <c r="C344">
+        <v>0.00561</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B345">
+        <v>7.874249780703713</v>
+      </c>
+      <c r="C345">
+        <v>0.00589</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B346">
+        <v>7.502352260538752</v>
+      </c>
+      <c r="C346">
+        <v>0.00714</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347">
+        <v>7.393485620421662</v>
+      </c>
+      <c r="C347">
+        <v>0.00756</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B348">
+        <v>7.358269080858181</v>
+      </c>
+      <c r="C348">
+        <v>0.0077</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B349">
+        <v>7.260889608901613</v>
+      </c>
+      <c r="C349">
+        <v>0.0081</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B350">
+        <v>7.251694603529919</v>
+      </c>
+      <c r="C350">
+        <v>0.00814</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B351">
+        <v>7.111875391266104</v>
+      </c>
+      <c r="C351">
+        <v>0.00876</v>
       </c>
     </row>
   </sheetData>
